--- a/StructureDefinition-RS-ServiceRequest.xlsx
+++ b/StructureDefinition-RS-ServiceRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T06:06:11+00:00</t>
+    <t>2025-10-15T08:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -872,7 +872,7 @@
     <t>ServiceRequest.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|4.0.1|Group|4.0.1|Location|4.0.1|Device|4.0.1)
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/RS-Patient)
 </t>
   </si>
   <si>
@@ -904,7 +904,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|4.0.1)
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/RS-Encounter)
 </t>
   </si>
   <si>
@@ -1244,7 +1244,7 @@
 AOE</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource|4.0.1)
+    <t xml:space="preserve">Reference(urn://example.com/ph-core/fhir/StructureDefinition/ph-core-organization|urn://example.com/ph-core/fhir/StructureDefinition/ph-core-practitioner)
 </t>
   </si>
   <si>
